--- a/5_analisis_de_resultados/output/df_results_ordered_by_model.xlsx
+++ b/5_analisis_de_resultados/output/df_results_ordered_by_model.xlsx
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9995880656741011</v>
+        <v>0.9984111104572471</v>
       </c>
       <c r="E6" t="n">
         <v>0.9985876537397752</v>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9999135396852844</v>
+        <v>0.9999133899185865</v>
       </c>
       <c r="E6" t="n">
         <v>0.9996538295110342</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9431818181818182</v>
       </c>
       <c r="E6" t="n">
         <v>0.8958333333333334</v>
@@ -2596,7 +2596,7 @@
         <v>0.8762886597938144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="7">
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.994466800804829</v>
       </c>
       <c r="E6" t="n">
         <v>0.9959636730575177</v>
@@ -2977,7 +2977,7 @@
         <v>0.9924698795180723</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9984833164812943</v>
+        <v>0.9974772956609486</v>
       </c>
     </row>
     <row r="7">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E6" t="n">
         <v>0.7586206896551724</v>
@@ -4489,7 +4489,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9885629040278469</v>
       </c>
       <c r="E6" t="n">
         <v>0.9994974874371859</v>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9994814622763806</v>
+        <v>0.9977530031976493</v>
       </c>
       <c r="E6" t="n">
         <v>0.9982715409212687</v>
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9789473684210527</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="E6" t="n">
         <v>0.9052631578947369</v>
@@ -6787,7 +6787,7 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="H6" t="n">
-        <v>0.968421052631579</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="7">
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9974760222110045</v>
+        <v>0.9979808177688037</v>
       </c>
       <c r="E6" t="n">
         <v>0.9964664310954063</v>
@@ -7168,7 +7168,7 @@
         <v>0.9979808177688037</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9969712266532055</v>
+        <v>0.9979808177688037</v>
       </c>
     </row>
     <row r="7">
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9994972347913524</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -9823,7 +9823,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.999697454293988</v>
+        <v>0.9988320283773845</v>
       </c>
       <c r="E6" t="n">
         <v>0.9989622070396955</v>
@@ -10966,7 +10966,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9587628865979383</v>
+        <v>0.907103825136612</v>
       </c>
       <c r="E6" t="n">
         <v>0.900523560209424</v>
@@ -10978,7 +10978,7 @@
         <v>0.8854166666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9484536082474226</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="7">
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9987364164771292</v>
+        <v>0.9962207105064248</v>
       </c>
       <c r="E6" t="n">
         <v>0.9962149886449659</v>
@@ -11359,7 +11359,7 @@
         <v>0.9952177196073497</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9977266986612783</v>
+        <v>0.9977289931869796</v>
       </c>
     </row>
     <row r="7">
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0.8627450980392156</v>
@@ -12109,7 +12109,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0.9803921568627451</v>
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>0.9997486805730083</v>
@@ -13252,7 +13252,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9995292179132584</v>
+        <v>0.9989995880656741</v>
       </c>
       <c r="E6" t="n">
         <v>0.9988818925439887</v>
@@ -13886,19 +13886,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -13918,19 +13918,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -13950,19 +13950,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -13982,19 +13982,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -14014,19 +14014,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -14046,19 +14046,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -14078,19 +14078,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -14110,19 +14110,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -14142,19 +14142,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -14174,19 +14174,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -14267,19 +14267,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -14299,19 +14299,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -14331,19 +14331,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -14363,19 +14363,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -14395,19 +14395,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -14427,19 +14427,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -14459,19 +14459,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -14491,19 +14491,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -14523,19 +14523,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -14555,19 +14555,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -14648,19 +14648,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -14680,19 +14680,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -14712,19 +14712,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -14744,19 +14744,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -14776,19 +14776,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -14808,19 +14808,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -14840,19 +14840,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -14872,19 +14872,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -14904,19 +14904,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -14936,19 +14936,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -15029,19 +15029,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -15061,19 +15061,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -15093,19 +15093,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -15125,19 +15125,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -15157,19 +15157,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -15189,19 +15189,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -15221,19 +15221,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -15253,19 +15253,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -15285,19 +15285,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -15317,19 +15317,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -15410,19 +15410,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -15442,19 +15442,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -15474,19 +15474,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -15506,19 +15506,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -15538,19 +15538,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -15570,19 +15570,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -15602,19 +15602,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -15634,19 +15634,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -15666,19 +15666,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -15698,19 +15698,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -15791,19 +15791,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -15823,19 +15823,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -15855,19 +15855,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -15887,19 +15887,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -15919,19 +15919,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -15951,19 +15951,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -15983,19 +15983,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -16015,19 +16015,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -16047,19 +16047,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -16079,19 +16079,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -16172,19 +16172,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -16204,19 +16204,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -16236,19 +16236,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -16268,19 +16268,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -16300,19 +16300,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -16332,19 +16332,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -16364,19 +16364,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -16396,19 +16396,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -16428,19 +16428,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -16460,19 +16460,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -16553,19 +16553,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -16585,19 +16585,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -16617,19 +16617,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -16649,19 +16649,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -16681,19 +16681,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -16713,19 +16713,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -16745,19 +16745,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -16777,19 +16777,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -16809,19 +16809,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -16841,19 +16841,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -16934,19 +16934,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -16966,19 +16966,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -16998,19 +16998,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -17030,19 +17030,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -17062,19 +17062,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -17094,19 +17094,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -17126,19 +17126,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -17158,19 +17158,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -17190,19 +17190,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -17222,19 +17222,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9997057611957865</v>
+        <v>0.9991172835873595</v>
       </c>
       <c r="E6" t="n">
         <v>0.9991172835873595</v>
@@ -17696,19 +17696,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="F2" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="G2" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="H2" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
     </row>
     <row r="3">
@@ -17728,19 +17728,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="G3" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="H3" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
     </row>
     <row r="4">
@@ -17760,19 +17760,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="E4" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="H4" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
     </row>
     <row r="5">
@@ -17792,19 +17792,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="E5" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="F5" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
     </row>
     <row r="6">
@@ -17824,19 +17824,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="E6" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="F6" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="G6" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
     </row>
     <row r="7">
@@ -17856,19 +17856,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="E7" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="F7" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="G7" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="H7" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
     </row>
     <row r="8">
@@ -17888,19 +17888,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="E8" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="F8" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="G8" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="H8" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
     </row>
     <row r="9">
@@ -17920,19 +17920,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="E9" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="F9" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="G9" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="H9" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
     </row>
     <row r="10">
@@ -17952,19 +17952,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="E10" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="F10" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="G10" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="H10" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
     </row>
     <row r="11">
@@ -17984,19 +17984,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
       <c r="E11" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
       <c r="F11" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
       <c r="G11" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
       <c r="H11" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -18205,7 +18205,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9999998730369458</v>
+        <v>0.9999109481201</v>
       </c>
       <c r="E6" t="n">
         <v>0.9996307881090423</v>
@@ -18217,7 +18217,7 @@
         <v>0.9997333993229149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999996787774507</v>
+        <v>0.9999995438467617</v>
       </c>
     </row>
     <row r="7">
@@ -19348,7 +19348,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9952840425377659</v>
+        <v>0.9667107063225016</v>
       </c>
       <c r="E6" t="n">
         <v>0.8787878269994358</v>
@@ -19360,7 +19360,7 @@
         <v>0.9047159475027482</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9931072507839582</v>
+        <v>0.9928309258917857</v>
       </c>
     </row>
     <row r="7">
@@ -19729,7 +19729,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9999918835163935</v>
+        <v>0.9999293084154245</v>
       </c>
       <c r="E6" t="n">
         <v>0.9964201318702068</v>
@@ -19741,7 +19741,7 @@
         <v>0.9965430981168951</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999900627438383</v>
+        <v>0.9999913445014639</v>
       </c>
     </row>
     <row r="7">
@@ -21253,7 +21253,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9970702878051325</v>
       </c>
       <c r="E6" t="n">
         <v>0.999748743718593</v>
@@ -21265,7 +21265,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -21634,7 +21634,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9999411522391572</v>
       </c>
       <c r="E6" t="n">
         <v>0.9995880656741011</v>
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9999411522391572</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0.9998823044783146</v>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9985876537397752</v>
       </c>
       <c r="E6" t="n">
         <v>0.9999411522391572</v>
